--- a/Section_04_Basic_Excel_Functions/Section_04_Basic_Excel_Functions.xlsx
+++ b/Section_04_Basic_Excel_Functions/Section_04_Basic_Excel_Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Microsoft Excel\Section_04_Basic_Excel_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED4CA40-B56F-482B-B270-5ED545B133EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C861850-17C5-40A2-B036-0C312F8B5DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{368F7846-A07E-457B-B408-7BE40DC0A8DD}"/>
+    <workbookView xWindow="12330" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{368F7846-A07E-457B-B408-7BE40DC0A8DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mmm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -115,7 +115,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
         <v>350</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F9" si="0">E5/$E$9</f>
+        <f>E5/$E$9</f>
         <v>6.8292682926829273E-2</v>
       </c>
     </row>
@@ -545,7 +545,7 @@
         <v>525</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f>E6/$E$9</f>
         <v>0.1024390243902439</v>
       </c>
     </row>
@@ -567,7 +567,7 @@
         <v>925</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f>E7/$E$9</f>
         <v>0.18048780487804877</v>
       </c>
     </row>
@@ -589,7 +589,7 @@
         <v>325</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f>E8/$E$9</f>
         <v>6.3414634146341464E-2</v>
       </c>
     </row>
@@ -602,15 +602,15 @@
         <v>1675</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:E9" si="1">SUM(C4:C8)</f>
+        <f>SUM(C4:C8)</f>
         <v>1700</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f>SUM(D4:D8)</f>
         <v>1750</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f>SUM(E4:E8)</f>
         <v>5125</v>
       </c>
       <c r="F9">
@@ -627,15 +627,15 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:E11" si="2">MIN(C4:C8)</f>
+        <f>MIN(C4:C8)</f>
         <v>100</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
+        <f>MIN(D4:D8)</f>
         <v>100</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f>MIN(E4:E8)</f>
         <v>325</v>
       </c>
     </row>
@@ -648,15 +648,15 @@
         <v>1000</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:E12" si="3">MAX(C4:C8)</f>
+        <f>MAX(C4:C8)</f>
         <v>1000</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f>MAX(D4:D8)</f>
         <v>1000</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f>MAX(E4:E8)</f>
         <v>3000</v>
       </c>
     </row>
@@ -669,15 +669,15 @@
         <v>335</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:E13" si="4">AVERAGE(C4:C8)</f>
+        <f>AVERAGE(C4:C8)</f>
         <v>340</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(D4:D8)</f>
         <v>350</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(E4:E8)</f>
         <v>1025</v>
       </c>
     </row>
@@ -690,15 +690,15 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:E14" si="5">COUNT(C4:C8)</f>
+        <f>COUNT(C4:C8)</f>
         <v>5</v>
       </c>
       <c r="D14">
-        <f t="shared" si="5"/>
+        <f>COUNT(D4:D8)</f>
         <v>5</v>
       </c>
       <c r="E14">
-        <f t="shared" si="5"/>
+        <f>COUNT(E4:E8)</f>
         <v>5</v>
       </c>
     </row>
